--- a/Sprint 4 Doc/Updated Gantt Chart.xlsx
+++ b/Sprint 4 Doc/Updated Gantt Chart.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="77">
   <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -302,6 +302,10 @@
   </si>
   <si>
     <t>Update UI</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI Testing</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1364,6 +1368,42 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1408,42 +1448,6 @@
     </xf>
     <xf numFmtId="176" fontId="9" fillId="3" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1843,10 +1847,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:AY105"/>
+  <dimension ref="B2:AY106"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:CI105"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AZ56" sqref="AZ56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -1865,7 +1869,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:51" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="75" t="s">
         <v>1</v>
       </c>
       <c r="M2" s="1"/>
@@ -1891,7 +1895,7 @@
       <c r="AG2" s="1"/>
     </row>
     <row r="3" spans="2:51" ht="21" customHeight="1" x14ac:dyDescent="1">
-      <c r="B3" s="63"/>
+      <c r="B3" s="75"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -1903,81 +1907,81 @@
       <c r="L3" s="11"/>
       <c r="M3" s="3"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="69" t="s">
+      <c r="O3" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="70"/>
-      <c r="S3" s="70"/>
-      <c r="T3" s="70"/>
-      <c r="U3" s="70"/>
-      <c r="V3" s="70"/>
-      <c r="W3" s="70"/>
-      <c r="X3" s="70"/>
-      <c r="Y3" s="70"/>
-      <c r="Z3" s="70"/>
-      <c r="AA3" s="70"/>
-      <c r="AB3" s="70"/>
-      <c r="AC3" s="70"/>
-      <c r="AD3" s="70"/>
-      <c r="AE3" s="70"/>
-      <c r="AF3" s="70"/>
-      <c r="AG3" s="70"/>
-      <c r="AH3" s="70"/>
-      <c r="AI3" s="70"/>
-      <c r="AJ3" s="70"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82"/>
+      <c r="S3" s="82"/>
+      <c r="T3" s="82"/>
+      <c r="U3" s="82"/>
+      <c r="V3" s="82"/>
+      <c r="W3" s="82"/>
+      <c r="X3" s="82"/>
+      <c r="Y3" s="82"/>
+      <c r="Z3" s="82"/>
+      <c r="AA3" s="82"/>
+      <c r="AB3" s="82"/>
+      <c r="AC3" s="82"/>
+      <c r="AD3" s="82"/>
+      <c r="AE3" s="82"/>
+      <c r="AF3" s="82"/>
+      <c r="AG3" s="82"/>
+      <c r="AH3" s="82"/>
+      <c r="AI3" s="82"/>
+      <c r="AJ3" s="82"/>
     </row>
     <row r="4" spans="2:51" ht="18.75" customHeight="1" x14ac:dyDescent="1">
-      <c r="B4" s="63"/>
+      <c r="B4" s="75"/>
       <c r="L4" s="11"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="70"/>
-      <c r="S4" s="70"/>
-      <c r="T4" s="70"/>
-      <c r="U4" s="70"/>
-      <c r="V4" s="70"/>
-      <c r="W4" s="70"/>
-      <c r="X4" s="70"/>
-      <c r="Y4" s="70"/>
-      <c r="Z4" s="70"/>
-      <c r="AA4" s="70"/>
-      <c r="AB4" s="70"/>
-      <c r="AC4" s="70"/>
-      <c r="AD4" s="70"/>
-      <c r="AE4" s="70"/>
-      <c r="AF4" s="70"/>
-      <c r="AG4" s="70"/>
-      <c r="AH4" s="70"/>
-      <c r="AI4" s="70"/>
-      <c r="AJ4" s="70"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="82"/>
+      <c r="Q4" s="82"/>
+      <c r="R4" s="82"/>
+      <c r="S4" s="82"/>
+      <c r="T4" s="82"/>
+      <c r="U4" s="82"/>
+      <c r="V4" s="82"/>
+      <c r="W4" s="82"/>
+      <c r="X4" s="82"/>
+      <c r="Y4" s="82"/>
+      <c r="Z4" s="82"/>
+      <c r="AA4" s="82"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="82"/>
+      <c r="AD4" s="82"/>
+      <c r="AE4" s="82"/>
+      <c r="AF4" s="82"/>
+      <c r="AG4" s="82"/>
+      <c r="AH4" s="82"/>
+      <c r="AI4" s="82"/>
+      <c r="AJ4" s="82"/>
     </row>
     <row r="5" spans="2:51" ht="19.5" customHeight="1" x14ac:dyDescent="1">
       <c r="L5" s="11"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="70"/>
-      <c r="T5" s="70"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
-      <c r="W5" s="70"/>
-      <c r="X5" s="70"/>
-      <c r="Y5" s="70"/>
-      <c r="Z5" s="70"/>
-      <c r="AA5" s="70"/>
-      <c r="AB5" s="70"/>
-      <c r="AC5" s="70"/>
-      <c r="AD5" s="70"/>
-      <c r="AE5" s="70"/>
-      <c r="AF5" s="70"/>
-      <c r="AG5" s="70"/>
-      <c r="AH5" s="70"/>
-      <c r="AI5" s="70"/>
-      <c r="AJ5" s="70"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="82"/>
+      <c r="T5" s="82"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
+      <c r="W5" s="82"/>
+      <c r="X5" s="82"/>
+      <c r="Y5" s="82"/>
+      <c r="Z5" s="82"/>
+      <c r="AA5" s="82"/>
+      <c r="AB5" s="82"/>
+      <c r="AC5" s="82"/>
+      <c r="AD5" s="82"/>
+      <c r="AE5" s="82"/>
+      <c r="AF5" s="82"/>
+      <c r="AG5" s="82"/>
+      <c r="AH5" s="82"/>
+      <c r="AI5" s="82"/>
+      <c r="AJ5" s="82"/>
     </row>
     <row r="6" spans="2:51" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="5"/>
@@ -1989,123 +1993,123 @@
       <c r="AD6" s="1"/>
     </row>
     <row r="7" spans="2:51" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71"/>
-      <c r="O7" s="71"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="71"/>
-      <c r="S7" s="71"/>
-      <c r="T7" s="71"/>
-      <c r="U7" s="71"/>
-      <c r="V7" s="71"/>
-      <c r="W7" s="71"/>
-      <c r="X7" s="71"/>
-      <c r="Y7" s="71"/>
-      <c r="Z7" s="71"/>
-      <c r="AA7" s="71"/>
-      <c r="AB7" s="71"/>
-      <c r="AC7" s="71"/>
-      <c r="AD7" s="71"/>
-      <c r="AE7" s="71"/>
-      <c r="AF7" s="71"/>
-      <c r="AG7" s="71"/>
-      <c r="AH7" s="71"/>
-      <c r="AI7" s="71"/>
-      <c r="AJ7" s="71"/>
-      <c r="AK7" s="71"/>
-      <c r="AL7" s="71"/>
-      <c r="AM7" s="71"/>
-      <c r="AN7" s="71"/>
-      <c r="AO7" s="71"/>
-      <c r="AP7" s="71"/>
-      <c r="AQ7" s="71"/>
-      <c r="AR7" s="71"/>
-      <c r="AS7" s="71"/>
-      <c r="AT7" s="71"/>
-      <c r="AU7" s="71"/>
-      <c r="AV7" s="71"/>
-      <c r="AW7" s="71"/>
-      <c r="AX7" s="72"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="83"/>
+      <c r="P7" s="83"/>
+      <c r="Q7" s="83"/>
+      <c r="R7" s="83"/>
+      <c r="S7" s="83"/>
+      <c r="T7" s="83"/>
+      <c r="U7" s="83"/>
+      <c r="V7" s="83"/>
+      <c r="W7" s="83"/>
+      <c r="X7" s="83"/>
+      <c r="Y7" s="83"/>
+      <c r="Z7" s="83"/>
+      <c r="AA7" s="83"/>
+      <c r="AB7" s="83"/>
+      <c r="AC7" s="83"/>
+      <c r="AD7" s="83"/>
+      <c r="AE7" s="83"/>
+      <c r="AF7" s="83"/>
+      <c r="AG7" s="83"/>
+      <c r="AH7" s="83"/>
+      <c r="AI7" s="83"/>
+      <c r="AJ7" s="83"/>
+      <c r="AK7" s="83"/>
+      <c r="AL7" s="83"/>
+      <c r="AM7" s="83"/>
+      <c r="AN7" s="83"/>
+      <c r="AO7" s="83"/>
+      <c r="AP7" s="83"/>
+      <c r="AQ7" s="83"/>
+      <c r="AR7" s="83"/>
+      <c r="AS7" s="83"/>
+      <c r="AT7" s="83"/>
+      <c r="AU7" s="83"/>
+      <c r="AV7" s="83"/>
+      <c r="AW7" s="83"/>
+      <c r="AX7" s="84"/>
     </row>
     <row r="8" spans="2:51" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="74"/>
-      <c r="C8" s="64" t="s">
+      <c r="B8" s="86"/>
+      <c r="C8" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="66" t="s">
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="64"/>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="64"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="64"/>
-      <c r="V8" s="65"/>
-      <c r="W8" s="66" t="s">
+      <c r="O8" s="76"/>
+      <c r="P8" s="76"/>
+      <c r="Q8" s="76"/>
+      <c r="R8" s="76"/>
+      <c r="S8" s="76"/>
+      <c r="T8" s="76"/>
+      <c r="U8" s="76"/>
+      <c r="V8" s="77"/>
+      <c r="W8" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="X8" s="64"/>
-      <c r="Y8" s="64"/>
-      <c r="Z8" s="64"/>
-      <c r="AA8" s="64"/>
-      <c r="AB8" s="64"/>
-      <c r="AC8" s="67"/>
-      <c r="AD8" s="67"/>
-      <c r="AE8" s="67"/>
-      <c r="AF8" s="68"/>
-      <c r="AG8" s="66" t="s">
+      <c r="X8" s="76"/>
+      <c r="Y8" s="76"/>
+      <c r="Z8" s="76"/>
+      <c r="AA8" s="76"/>
+      <c r="AB8" s="76"/>
+      <c r="AC8" s="79"/>
+      <c r="AD8" s="79"/>
+      <c r="AE8" s="79"/>
+      <c r="AF8" s="80"/>
+      <c r="AG8" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="AH8" s="64"/>
-      <c r="AI8" s="64"/>
-      <c r="AJ8" s="64"/>
-      <c r="AK8" s="64"/>
-      <c r="AL8" s="64"/>
-      <c r="AM8" s="64"/>
-      <c r="AN8" s="65"/>
-      <c r="AO8" s="66" t="s">
+      <c r="AH8" s="76"/>
+      <c r="AI8" s="76"/>
+      <c r="AJ8" s="76"/>
+      <c r="AK8" s="76"/>
+      <c r="AL8" s="76"/>
+      <c r="AM8" s="76"/>
+      <c r="AN8" s="77"/>
+      <c r="AO8" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="AP8" s="64"/>
-      <c r="AQ8" s="64"/>
-      <c r="AR8" s="64"/>
-      <c r="AS8" s="64"/>
-      <c r="AT8" s="64"/>
-      <c r="AU8" s="64"/>
-      <c r="AV8" s="64"/>
-      <c r="AW8" s="64"/>
-      <c r="AX8" s="65"/>
+      <c r="AP8" s="76"/>
+      <c r="AQ8" s="76"/>
+      <c r="AR8" s="76"/>
+      <c r="AS8" s="76"/>
+      <c r="AT8" s="76"/>
+      <c r="AU8" s="76"/>
+      <c r="AV8" s="76"/>
+      <c r="AW8" s="76"/>
+      <c r="AX8" s="77"/>
     </row>
     <row r="9" spans="2:51" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="75"/>
+      <c r="B9" s="87"/>
       <c r="C9" s="61">
         <v>9.18</v>
       </c>
@@ -2143,13 +2147,13 @@
       <c r="Y9" s="61"/>
       <c r="Z9" s="61"/>
       <c r="AA9" s="62"/>
-      <c r="AB9" s="76">
+      <c r="AB9" s="88">
         <v>10.3</v>
       </c>
-      <c r="AC9" s="76"/>
-      <c r="AD9" s="76"/>
-      <c r="AE9" s="76"/>
-      <c r="AF9" s="77"/>
+      <c r="AC9" s="88"/>
+      <c r="AD9" s="88"/>
+      <c r="AE9" s="88"/>
+      <c r="AF9" s="89"/>
       <c r="AG9" s="60">
         <v>11.06</v>
       </c>
@@ -2160,10 +2164,10 @@
       </c>
       <c r="AK9" s="61"/>
       <c r="AL9" s="62"/>
-      <c r="AM9" s="81">
+      <c r="AM9" s="66">
         <v>11.2</v>
       </c>
-      <c r="AN9" s="82"/>
+      <c r="AN9" s="67"/>
       <c r="AO9" s="60">
         <v>11.27</v>
       </c>
@@ -2183,57 +2187,57 @@
       <c r="AY9" s="1"/>
     </row>
     <row r="10" spans="2:51" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="79"/>
-      <c r="O10" s="79"/>
-      <c r="P10" s="79"/>
-      <c r="Q10" s="79"/>
-      <c r="R10" s="79"/>
-      <c r="S10" s="79"/>
-      <c r="T10" s="79"/>
-      <c r="U10" s="79"/>
-      <c r="V10" s="79"/>
-      <c r="W10" s="79"/>
-      <c r="X10" s="79"/>
-      <c r="Y10" s="79"/>
-      <c r="Z10" s="79"/>
-      <c r="AA10" s="79"/>
-      <c r="AB10" s="79"/>
-      <c r="AC10" s="79"/>
-      <c r="AD10" s="79"/>
-      <c r="AE10" s="79"/>
-      <c r="AF10" s="79"/>
-      <c r="AG10" s="79"/>
-      <c r="AH10" s="79"/>
-      <c r="AI10" s="79"/>
-      <c r="AJ10" s="79"/>
-      <c r="AK10" s="79"/>
-      <c r="AL10" s="79"/>
-      <c r="AM10" s="79"/>
-      <c r="AN10" s="79"/>
-      <c r="AO10" s="79"/>
-      <c r="AP10" s="79"/>
-      <c r="AQ10" s="79"/>
-      <c r="AR10" s="79"/>
-      <c r="AS10" s="79"/>
-      <c r="AT10" s="79"/>
-      <c r="AU10" s="79"/>
-      <c r="AV10" s="79"/>
-      <c r="AW10" s="79"/>
-      <c r="AX10" s="80"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="64"/>
+      <c r="V10" s="64"/>
+      <c r="W10" s="64"/>
+      <c r="X10" s="64"/>
+      <c r="Y10" s="64"/>
+      <c r="Z10" s="64"/>
+      <c r="AA10" s="64"/>
+      <c r="AB10" s="64"/>
+      <c r="AC10" s="64"/>
+      <c r="AD10" s="64"/>
+      <c r="AE10" s="64"/>
+      <c r="AF10" s="64"/>
+      <c r="AG10" s="64"/>
+      <c r="AH10" s="64"/>
+      <c r="AI10" s="64"/>
+      <c r="AJ10" s="64"/>
+      <c r="AK10" s="64"/>
+      <c r="AL10" s="64"/>
+      <c r="AM10" s="64"/>
+      <c r="AN10" s="64"/>
+      <c r="AO10" s="64"/>
+      <c r="AP10" s="64"/>
+      <c r="AQ10" s="64"/>
+      <c r="AR10" s="64"/>
+      <c r="AS10" s="64"/>
+      <c r="AT10" s="64"/>
+      <c r="AU10" s="64"/>
+      <c r="AV10" s="64"/>
+      <c r="AW10" s="64"/>
+      <c r="AX10" s="65"/>
       <c r="AY10" s="1"/>
     </row>
     <row r="11" spans="2:51" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -2278,7 +2282,7 @@
       <c r="T11" s="15"/>
       <c r="U11" s="29"/>
       <c r="V11" s="35"/>
-      <c r="W11" s="86"/>
+      <c r="W11" s="71"/>
       <c r="X11" s="15"/>
       <c r="Y11" s="15"/>
       <c r="Z11" s="15"/>
@@ -2288,7 +2292,7 @@
       <c r="AD11" s="15"/>
       <c r="AE11" s="15"/>
       <c r="AF11" s="15"/>
-      <c r="AG11" s="88"/>
+      <c r="AG11" s="73"/>
       <c r="AH11" s="15"/>
       <c r="AI11" s="15"/>
       <c r="AJ11" s="15"/>
@@ -2296,7 +2300,7 @@
       <c r="AL11" s="15"/>
       <c r="AM11" s="15"/>
       <c r="AN11" s="56"/>
-      <c r="AO11" s="83"/>
+      <c r="AO11" s="68"/>
       <c r="AP11" s="15"/>
       <c r="AQ11" s="15"/>
       <c r="AR11" s="15"/>
@@ -2343,7 +2347,7 @@
       <c r="T12" s="28"/>
       <c r="U12" s="26"/>
       <c r="V12" s="22"/>
-      <c r="W12" s="87"/>
+      <c r="W12" s="72"/>
       <c r="X12" s="19"/>
       <c r="Y12" s="19"/>
       <c r="Z12" s="19"/>
@@ -2353,7 +2357,7 @@
       <c r="AD12" s="12"/>
       <c r="AE12" s="18"/>
       <c r="AF12" s="20"/>
-      <c r="AG12" s="89"/>
+      <c r="AG12" s="74"/>
       <c r="AH12" s="12"/>
       <c r="AI12" s="12"/>
       <c r="AJ12" s="12"/>
@@ -2361,7 +2365,7 @@
       <c r="AL12" s="12"/>
       <c r="AM12" s="12"/>
       <c r="AN12" s="39"/>
-      <c r="AO12" s="84"/>
+      <c r="AO12" s="69"/>
       <c r="AP12" s="12"/>
       <c r="AQ12" s="12"/>
       <c r="AR12" s="12"/>
@@ -2407,7 +2411,7 @@
       <c r="M13" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="N13" s="86" t="s">
+      <c r="N13" s="71" t="s">
         <v>0</v>
       </c>
       <c r="O13" s="15"/>
@@ -2428,7 +2432,7 @@
       <c r="AD13" s="28"/>
       <c r="AE13" s="28"/>
       <c r="AF13" s="36"/>
-      <c r="AG13" s="87"/>
+      <c r="AG13" s="72"/>
       <c r="AH13" s="20"/>
       <c r="AI13" s="12"/>
       <c r="AJ13" s="21"/>
@@ -2436,7 +2440,7 @@
       <c r="AL13" s="18"/>
       <c r="AM13" s="19"/>
       <c r="AN13" s="40"/>
-      <c r="AO13" s="84"/>
+      <c r="AO13" s="69"/>
       <c r="AP13" s="12"/>
       <c r="AQ13" s="12"/>
       <c r="AR13" s="22"/>
@@ -2476,7 +2480,7 @@
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
-      <c r="N14" s="89"/>
+      <c r="N14" s="74"/>
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
       <c r="Q14" s="12"/>
@@ -2485,7 +2489,7 @@
       <c r="T14" s="12"/>
       <c r="U14" s="12"/>
       <c r="V14" s="12"/>
-      <c r="W14" s="86"/>
+      <c r="W14" s="71"/>
       <c r="X14" s="15"/>
       <c r="Y14" s="15"/>
       <c r="Z14" s="15"/>
@@ -2503,7 +2507,7 @@
       <c r="AL14" s="26"/>
       <c r="AM14" s="28"/>
       <c r="AN14" s="41"/>
-      <c r="AO14" s="85"/>
+      <c r="AO14" s="70"/>
       <c r="AP14" s="19"/>
       <c r="AQ14" s="12"/>
       <c r="AR14" s="23"/>
@@ -2551,7 +2555,7 @@
       <c r="M15" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="N15" s="89"/>
+      <c r="N15" s="74"/>
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
@@ -2560,7 +2564,7 @@
       <c r="T15" s="12"/>
       <c r="U15" s="12"/>
       <c r="V15" s="12"/>
-      <c r="W15" s="89"/>
+      <c r="W15" s="74"/>
       <c r="X15" s="12"/>
       <c r="Y15" s="12"/>
       <c r="Z15" s="12"/>
@@ -2570,7 +2574,7 @@
       <c r="AD15" s="12"/>
       <c r="AE15" s="12"/>
       <c r="AF15" s="12"/>
-      <c r="AG15" s="86"/>
+      <c r="AG15" s="71"/>
       <c r="AH15" s="15"/>
       <c r="AI15" s="15"/>
       <c r="AJ15" s="15"/>
@@ -2624,7 +2628,7 @@
       <c r="M16" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="N16" s="87"/>
+      <c r="N16" s="72"/>
       <c r="O16" s="22"/>
       <c r="P16" s="22"/>
       <c r="Q16" s="22"/>
@@ -2633,7 +2637,7 @@
       <c r="T16" s="22"/>
       <c r="U16" s="22"/>
       <c r="V16" s="22"/>
-      <c r="W16" s="87"/>
+      <c r="W16" s="72"/>
       <c r="X16" s="12"/>
       <c r="Y16" s="22"/>
       <c r="Z16" s="22"/>
@@ -2643,7 +2647,7 @@
       <c r="AD16" s="22"/>
       <c r="AE16" s="12"/>
       <c r="AF16" s="22"/>
-      <c r="AG16" s="87"/>
+      <c r="AG16" s="72"/>
       <c r="AH16" s="22"/>
       <c r="AI16" s="22"/>
       <c r="AJ16" s="22"/>
@@ -2793,57 +2797,57 @@
       <c r="AX18" s="25"/>
     </row>
     <row r="19" spans="2:50" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="78" t="s">
+      <c r="B19" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="79"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="79"/>
-      <c r="N19" s="79"/>
-      <c r="O19" s="79"/>
-      <c r="P19" s="79"/>
-      <c r="Q19" s="79"/>
-      <c r="R19" s="79"/>
-      <c r="S19" s="79"/>
-      <c r="T19" s="79"/>
-      <c r="U19" s="79"/>
-      <c r="V19" s="79"/>
-      <c r="W19" s="79"/>
-      <c r="X19" s="79"/>
-      <c r="Y19" s="79"/>
-      <c r="Z19" s="79"/>
-      <c r="AA19" s="79"/>
-      <c r="AB19" s="79"/>
-      <c r="AC19" s="79"/>
-      <c r="AD19" s="79"/>
-      <c r="AE19" s="79"/>
-      <c r="AF19" s="79"/>
-      <c r="AG19" s="79"/>
-      <c r="AH19" s="79"/>
-      <c r="AI19" s="79"/>
-      <c r="AJ19" s="79"/>
-      <c r="AK19" s="79"/>
-      <c r="AL19" s="79"/>
-      <c r="AM19" s="79"/>
-      <c r="AN19" s="79"/>
-      <c r="AO19" s="79"/>
-      <c r="AP19" s="79"/>
-      <c r="AQ19" s="79"/>
-      <c r="AR19" s="79"/>
-      <c r="AS19" s="79"/>
-      <c r="AT19" s="79"/>
-      <c r="AU19" s="79"/>
-      <c r="AV19" s="79"/>
-      <c r="AW19" s="79"/>
-      <c r="AX19" s="80"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="64"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="64"/>
+      <c r="R19" s="64"/>
+      <c r="S19" s="64"/>
+      <c r="T19" s="64"/>
+      <c r="U19" s="64"/>
+      <c r="V19" s="64"/>
+      <c r="W19" s="64"/>
+      <c r="X19" s="64"/>
+      <c r="Y19" s="64"/>
+      <c r="Z19" s="64"/>
+      <c r="AA19" s="64"/>
+      <c r="AB19" s="64"/>
+      <c r="AC19" s="64"/>
+      <c r="AD19" s="64"/>
+      <c r="AE19" s="64"/>
+      <c r="AF19" s="64"/>
+      <c r="AG19" s="64"/>
+      <c r="AH19" s="64"/>
+      <c r="AI19" s="64"/>
+      <c r="AJ19" s="64"/>
+      <c r="AK19" s="64"/>
+      <c r="AL19" s="64"/>
+      <c r="AM19" s="64"/>
+      <c r="AN19" s="64"/>
+      <c r="AO19" s="64"/>
+      <c r="AP19" s="64"/>
+      <c r="AQ19" s="64"/>
+      <c r="AR19" s="64"/>
+      <c r="AS19" s="64"/>
+      <c r="AT19" s="64"/>
+      <c r="AU19" s="64"/>
+      <c r="AV19" s="64"/>
+      <c r="AW19" s="64"/>
+      <c r="AX19" s="65"/>
     </row>
     <row r="20" spans="2:50" x14ac:dyDescent="0.4">
       <c r="B20" s="34" t="s">
@@ -3297,57 +3301,57 @@
       <c r="AX26" s="25"/>
     </row>
     <row r="27" spans="2:50" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="78" t="s">
+      <c r="B27" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="79"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="79"/>
-      <c r="L27" s="79"/>
-      <c r="M27" s="79"/>
-      <c r="N27" s="79"/>
-      <c r="O27" s="79"/>
-      <c r="P27" s="79"/>
-      <c r="Q27" s="79"/>
-      <c r="R27" s="79"/>
-      <c r="S27" s="79"/>
-      <c r="T27" s="79"/>
-      <c r="U27" s="79"/>
-      <c r="V27" s="79"/>
-      <c r="W27" s="79"/>
-      <c r="X27" s="79"/>
-      <c r="Y27" s="79"/>
-      <c r="Z27" s="79"/>
-      <c r="AA27" s="79"/>
-      <c r="AB27" s="79"/>
-      <c r="AC27" s="79"/>
-      <c r="AD27" s="79"/>
-      <c r="AE27" s="79"/>
-      <c r="AF27" s="79"/>
-      <c r="AG27" s="79"/>
-      <c r="AH27" s="79"/>
-      <c r="AI27" s="79"/>
-      <c r="AJ27" s="79"/>
-      <c r="AK27" s="79"/>
-      <c r="AL27" s="79"/>
-      <c r="AM27" s="79"/>
-      <c r="AN27" s="79"/>
-      <c r="AO27" s="79"/>
-      <c r="AP27" s="79"/>
-      <c r="AQ27" s="79"/>
-      <c r="AR27" s="79"/>
-      <c r="AS27" s="79"/>
-      <c r="AT27" s="79"/>
-      <c r="AU27" s="79"/>
-      <c r="AV27" s="79"/>
-      <c r="AW27" s="79"/>
-      <c r="AX27" s="80"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="64"/>
+      <c r="N27" s="64"/>
+      <c r="O27" s="64"/>
+      <c r="P27" s="64"/>
+      <c r="Q27" s="64"/>
+      <c r="R27" s="64"/>
+      <c r="S27" s="64"/>
+      <c r="T27" s="64"/>
+      <c r="U27" s="64"/>
+      <c r="V27" s="64"/>
+      <c r="W27" s="64"/>
+      <c r="X27" s="64"/>
+      <c r="Y27" s="64"/>
+      <c r="Z27" s="64"/>
+      <c r="AA27" s="64"/>
+      <c r="AB27" s="64"/>
+      <c r="AC27" s="64"/>
+      <c r="AD27" s="64"/>
+      <c r="AE27" s="64"/>
+      <c r="AF27" s="64"/>
+      <c r="AG27" s="64"/>
+      <c r="AH27" s="64"/>
+      <c r="AI27" s="64"/>
+      <c r="AJ27" s="64"/>
+      <c r="AK27" s="64"/>
+      <c r="AL27" s="64"/>
+      <c r="AM27" s="64"/>
+      <c r="AN27" s="64"/>
+      <c r="AO27" s="64"/>
+      <c r="AP27" s="64"/>
+      <c r="AQ27" s="64"/>
+      <c r="AR27" s="64"/>
+      <c r="AS27" s="64"/>
+      <c r="AT27" s="64"/>
+      <c r="AU27" s="64"/>
+      <c r="AV27" s="64"/>
+      <c r="AW27" s="64"/>
+      <c r="AX27" s="65"/>
     </row>
     <row r="28" spans="2:50" x14ac:dyDescent="0.4">
       <c r="B28" s="34" t="s">
@@ -3614,57 +3618,57 @@
       <c r="AX31" s="25"/>
     </row>
     <row r="32" spans="2:50" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="78" t="s">
+      <c r="B32" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="79"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="79"/>
-      <c r="I32" s="79"/>
-      <c r="J32" s="79"/>
-      <c r="K32" s="79"/>
-      <c r="L32" s="79"/>
-      <c r="M32" s="79"/>
-      <c r="N32" s="79"/>
-      <c r="O32" s="79"/>
-      <c r="P32" s="79"/>
-      <c r="Q32" s="79"/>
-      <c r="R32" s="79"/>
-      <c r="S32" s="79"/>
-      <c r="T32" s="79"/>
-      <c r="U32" s="79"/>
-      <c r="V32" s="79"/>
-      <c r="W32" s="79"/>
-      <c r="X32" s="79"/>
-      <c r="Y32" s="79"/>
-      <c r="Z32" s="79"/>
-      <c r="AA32" s="79"/>
-      <c r="AB32" s="79"/>
-      <c r="AC32" s="79"/>
-      <c r="AD32" s="79"/>
-      <c r="AE32" s="79"/>
-      <c r="AF32" s="79"/>
-      <c r="AG32" s="79"/>
-      <c r="AH32" s="79"/>
-      <c r="AI32" s="79"/>
-      <c r="AJ32" s="79"/>
-      <c r="AK32" s="79"/>
-      <c r="AL32" s="79"/>
-      <c r="AM32" s="79"/>
-      <c r="AN32" s="79"/>
-      <c r="AO32" s="79"/>
-      <c r="AP32" s="79"/>
-      <c r="AQ32" s="79"/>
-      <c r="AR32" s="79"/>
-      <c r="AS32" s="79"/>
-      <c r="AT32" s="79"/>
-      <c r="AU32" s="79"/>
-      <c r="AV32" s="79"/>
-      <c r="AW32" s="79"/>
-      <c r="AX32" s="80"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="64"/>
+      <c r="N32" s="64"/>
+      <c r="O32" s="64"/>
+      <c r="P32" s="64"/>
+      <c r="Q32" s="64"/>
+      <c r="R32" s="64"/>
+      <c r="S32" s="64"/>
+      <c r="T32" s="64"/>
+      <c r="U32" s="64"/>
+      <c r="V32" s="64"/>
+      <c r="W32" s="64"/>
+      <c r="X32" s="64"/>
+      <c r="Y32" s="64"/>
+      <c r="Z32" s="64"/>
+      <c r="AA32" s="64"/>
+      <c r="AB32" s="64"/>
+      <c r="AC32" s="64"/>
+      <c r="AD32" s="64"/>
+      <c r="AE32" s="64"/>
+      <c r="AF32" s="64"/>
+      <c r="AG32" s="64"/>
+      <c r="AH32" s="64"/>
+      <c r="AI32" s="64"/>
+      <c r="AJ32" s="64"/>
+      <c r="AK32" s="64"/>
+      <c r="AL32" s="64"/>
+      <c r="AM32" s="64"/>
+      <c r="AN32" s="64"/>
+      <c r="AO32" s="64"/>
+      <c r="AP32" s="64"/>
+      <c r="AQ32" s="64"/>
+      <c r="AR32" s="64"/>
+      <c r="AS32" s="64"/>
+      <c r="AT32" s="64"/>
+      <c r="AU32" s="64"/>
+      <c r="AV32" s="64"/>
+      <c r="AW32" s="64"/>
+      <c r="AX32" s="65"/>
     </row>
     <row r="33" spans="2:50" x14ac:dyDescent="0.4">
       <c r="B33" s="34" t="s">
@@ -3792,7 +3796,7 @@
       <c r="AW34" s="25"/>
       <c r="AX34" s="25"/>
     </row>
-    <row r="35" spans="2:50" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:50" x14ac:dyDescent="0.4">
       <c r="B35" s="34" t="s">
         <v>75</v>
       </c>
@@ -3859,123 +3863,127 @@
       <c r="AW35" s="25"/>
       <c r="AX35" s="25"/>
     </row>
-    <row r="36" spans="2:50" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="78" t="s">
+    <row r="36" spans="2:50" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="24"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="38"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="25"/>
+      <c r="U36" s="25"/>
+      <c r="V36" s="25"/>
+      <c r="W36" s="38"/>
+      <c r="X36" s="25"/>
+      <c r="Y36" s="25"/>
+      <c r="Z36" s="25"/>
+      <c r="AA36" s="25"/>
+      <c r="AB36" s="25"/>
+      <c r="AC36" s="25"/>
+      <c r="AD36" s="25"/>
+      <c r="AE36" s="25"/>
+      <c r="AF36" s="25"/>
+      <c r="AG36" s="38"/>
+      <c r="AH36" s="38"/>
+      <c r="AI36" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK36" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL36" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM36" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN36" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO36" s="24"/>
+      <c r="AP36" s="25"/>
+      <c r="AQ36" s="25"/>
+      <c r="AR36" s="25"/>
+      <c r="AS36" s="25"/>
+      <c r="AT36" s="25"/>
+      <c r="AU36" s="25"/>
+      <c r="AV36" s="25"/>
+      <c r="AW36" s="25"/>
+      <c r="AX36" s="25"/>
+    </row>
+    <row r="37" spans="2:50" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="79"/>
-      <c r="D36" s="79"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="79"/>
-      <c r="H36" s="79"/>
-      <c r="I36" s="79"/>
-      <c r="J36" s="79"/>
-      <c r="K36" s="79"/>
-      <c r="L36" s="79"/>
-      <c r="M36" s="79"/>
-      <c r="N36" s="79"/>
-      <c r="O36" s="79"/>
-      <c r="P36" s="79"/>
-      <c r="Q36" s="79"/>
-      <c r="R36" s="79"/>
-      <c r="S36" s="79"/>
-      <c r="T36" s="79"/>
-      <c r="U36" s="79"/>
-      <c r="V36" s="79"/>
-      <c r="W36" s="79"/>
-      <c r="X36" s="79"/>
-      <c r="Y36" s="79"/>
-      <c r="Z36" s="79"/>
-      <c r="AA36" s="79"/>
-      <c r="AB36" s="79"/>
-      <c r="AC36" s="79"/>
-      <c r="AD36" s="79"/>
-      <c r="AE36" s="79"/>
-      <c r="AF36" s="79"/>
-      <c r="AG36" s="79"/>
-      <c r="AH36" s="79"/>
-      <c r="AI36" s="79"/>
-      <c r="AJ36" s="79"/>
-      <c r="AK36" s="79"/>
-      <c r="AL36" s="79"/>
-      <c r="AM36" s="79"/>
-      <c r="AN36" s="79"/>
-      <c r="AO36" s="79"/>
-      <c r="AP36" s="79"/>
-      <c r="AQ36" s="79"/>
-      <c r="AR36" s="79"/>
-      <c r="AS36" s="79"/>
-      <c r="AT36" s="79"/>
-      <c r="AU36" s="79"/>
-      <c r="AV36" s="79"/>
-      <c r="AW36" s="79"/>
-      <c r="AX36" s="80"/>
-    </row>
-    <row r="37" spans="2:50" x14ac:dyDescent="0.4">
-      <c r="B37" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="38"/>
-      <c r="O37" s="25"/>
-      <c r="P37" s="25"/>
-      <c r="Q37" s="25"/>
-      <c r="R37" s="25"/>
-      <c r="S37" s="25"/>
-      <c r="T37" s="25"/>
-      <c r="U37" s="25"/>
-      <c r="V37" s="25"/>
-      <c r="W37" s="38"/>
-      <c r="X37" s="25"/>
-      <c r="Y37" s="25"/>
-      <c r="Z37" s="25"/>
-      <c r="AA37" s="25"/>
-      <c r="AB37" s="25"/>
-      <c r="AC37" s="25"/>
-      <c r="AD37" s="25"/>
-      <c r="AE37" s="25"/>
-      <c r="AF37" s="25"/>
-      <c r="AG37" s="38"/>
-      <c r="AH37" s="25"/>
-      <c r="AI37" s="25"/>
-      <c r="AJ37" s="25"/>
-      <c r="AK37" s="25"/>
-      <c r="AL37" s="25"/>
-      <c r="AM37" s="25"/>
-      <c r="AN37" s="44"/>
-      <c r="AO37" s="24"/>
-      <c r="AP37" s="25"/>
-      <c r="AQ37" s="25"/>
-      <c r="AR37" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS37" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT37" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU37" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV37" s="25"/>
-      <c r="AW37" s="25"/>
-      <c r="AX37" s="25"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="64"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="64"/>
+      <c r="K37" s="64"/>
+      <c r="L37" s="64"/>
+      <c r="M37" s="64"/>
+      <c r="N37" s="64"/>
+      <c r="O37" s="64"/>
+      <c r="P37" s="64"/>
+      <c r="Q37" s="64"/>
+      <c r="R37" s="64"/>
+      <c r="S37" s="64"/>
+      <c r="T37" s="64"/>
+      <c r="U37" s="64"/>
+      <c r="V37" s="64"/>
+      <c r="W37" s="64"/>
+      <c r="X37" s="64"/>
+      <c r="Y37" s="64"/>
+      <c r="Z37" s="64"/>
+      <c r="AA37" s="64"/>
+      <c r="AB37" s="64"/>
+      <c r="AC37" s="64"/>
+      <c r="AD37" s="64"/>
+      <c r="AE37" s="64"/>
+      <c r="AF37" s="64"/>
+      <c r="AG37" s="64"/>
+      <c r="AH37" s="64"/>
+      <c r="AI37" s="64"/>
+      <c r="AJ37" s="64"/>
+      <c r="AK37" s="64"/>
+      <c r="AL37" s="64"/>
+      <c r="AM37" s="64"/>
+      <c r="AN37" s="64"/>
+      <c r="AO37" s="64"/>
+      <c r="AP37" s="64"/>
+      <c r="AQ37" s="64"/>
+      <c r="AR37" s="64"/>
+      <c r="AS37" s="64"/>
+      <c r="AT37" s="64"/>
+      <c r="AU37" s="64"/>
+      <c r="AV37" s="64"/>
+      <c r="AW37" s="64"/>
+      <c r="AX37" s="65"/>
     </row>
     <row r="38" spans="2:50" x14ac:dyDescent="0.4">
       <c r="B38" s="34" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C38" s="24"/>
       <c r="D38" s="25"/>
@@ -4007,7 +4015,7 @@
       <c r="AD38" s="25"/>
       <c r="AE38" s="25"/>
       <c r="AF38" s="25"/>
-      <c r="AG38" s="25"/>
+      <c r="AG38" s="38"/>
       <c r="AH38" s="25"/>
       <c r="AI38" s="25"/>
       <c r="AJ38" s="25"/>
@@ -4015,32 +4023,28 @@
       <c r="AL38" s="25"/>
       <c r="AM38" s="25"/>
       <c r="AN38" s="44"/>
-      <c r="AO38" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP38" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ38" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR38" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS38" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT38" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU38" s="25"/>
+      <c r="AO38" s="24"/>
+      <c r="AP38" s="25"/>
+      <c r="AQ38" s="25"/>
+      <c r="AR38" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS38" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT38" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU38" s="57" t="s">
+        <v>0</v>
+      </c>
       <c r="AV38" s="25"/>
       <c r="AW38" s="25"/>
       <c r="AX38" s="25"/>
     </row>
     <row r="39" spans="2:50" x14ac:dyDescent="0.4">
       <c r="B39" s="34" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="C39" s="24"/>
       <c r="D39" s="25"/>
@@ -4080,20 +4084,22 @@
       <c r="AL39" s="25"/>
       <c r="AM39" s="25"/>
       <c r="AN39" s="44"/>
-      <c r="AO39" s="24"/>
-      <c r="AP39" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ39" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR39" s="8" t="s">
+      <c r="AO39" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP39" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ39" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR39" s="10" t="s">
         <v>0</v>
       </c>
       <c r="AS39" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="AT39" s="14" t="s">
+      <c r="AT39" s="8" t="s">
         <v>0</v>
       </c>
       <c r="AU39" s="25"/>
@@ -4103,7 +4109,7 @@
     </row>
     <row r="40" spans="2:50" x14ac:dyDescent="0.4">
       <c r="B40" s="34" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="C40" s="24"/>
       <c r="D40" s="25"/>
@@ -4135,7 +4141,7 @@
       <c r="AD40" s="25"/>
       <c r="AE40" s="25"/>
       <c r="AF40" s="25"/>
-      <c r="AG40" s="38"/>
+      <c r="AG40" s="25"/>
       <c r="AH40" s="25"/>
       <c r="AI40" s="25"/>
       <c r="AJ40" s="25"/>
@@ -4144,25 +4150,29 @@
       <c r="AM40" s="25"/>
       <c r="AN40" s="44"/>
       <c r="AO40" s="24"/>
-      <c r="AP40" s="25"/>
-      <c r="AQ40" s="25"/>
-      <c r="AR40" s="25"/>
-      <c r="AS40" s="25"/>
-      <c r="AT40" s="25"/>
+      <c r="AP40" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ40" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR40" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS40" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT40" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="AU40" s="25"/>
-      <c r="AV40" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW40" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX40" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="AV40" s="25"/>
+      <c r="AW40" s="25"/>
+      <c r="AX40" s="25"/>
     </row>
     <row r="41" spans="2:50" x14ac:dyDescent="0.4">
       <c r="B41" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C41" s="24"/>
       <c r="D41" s="25"/>
@@ -4221,9 +4231,9 @@
     </row>
     <row r="42" spans="2:50" x14ac:dyDescent="0.4">
       <c r="B42" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="C42" s="24"/>
       <c r="D42" s="25"/>
       <c r="E42" s="25"/>
       <c r="F42" s="25"/>
@@ -4278,75 +4288,123 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:50" x14ac:dyDescent="0.4">
-      <c r="B48" s="4" t="s">
+    <row r="43" spans="2:50" x14ac:dyDescent="0.4">
+      <c r="B43" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="38"/>
+      <c r="O43" s="25"/>
+      <c r="P43" s="25"/>
+      <c r="Q43" s="25"/>
+      <c r="R43" s="25"/>
+      <c r="S43" s="25"/>
+      <c r="T43" s="25"/>
+      <c r="U43" s="25"/>
+      <c r="V43" s="25"/>
+      <c r="W43" s="38"/>
+      <c r="X43" s="25"/>
+      <c r="Y43" s="25"/>
+      <c r="Z43" s="25"/>
+      <c r="AA43" s="25"/>
+      <c r="AB43" s="25"/>
+      <c r="AC43" s="25"/>
+      <c r="AD43" s="25"/>
+      <c r="AE43" s="25"/>
+      <c r="AF43" s="25"/>
+      <c r="AG43" s="38"/>
+      <c r="AH43" s="25"/>
+      <c r="AI43" s="25"/>
+      <c r="AJ43" s="25"/>
+      <c r="AK43" s="25"/>
+      <c r="AL43" s="25"/>
+      <c r="AM43" s="25"/>
+      <c r="AN43" s="44"/>
+      <c r="AO43" s="24"/>
+      <c r="AP43" s="25"/>
+      <c r="AQ43" s="25"/>
+      <c r="AR43" s="25"/>
+      <c r="AS43" s="25"/>
+      <c r="AT43" s="25"/>
+      <c r="AU43" s="25"/>
+      <c r="AV43" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW43" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX43" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B49" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G48" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H48" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="I48" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="J48" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="D49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I49" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J49" s="8" t="s">
+      <c r="G49" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J49" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.4">
       <c r="D50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="D51" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G50" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="H50" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="I50" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="J50" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B56" s="4" t="s">
+      <c r="G51" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B57" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-    </row>
-    <row r="57" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -4356,10 +4414,8 @@
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B58" s="4" t="s">
-        <v>64</v>
-      </c>
+    <row r="58" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -4371,194 +4427,189 @@
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B59" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B60" s="4" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B61" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B62" s="4" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B63" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B64" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B65" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B66" s="4" t="s">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B67" s="4" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B68" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B69" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B70" s="4" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B71" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B72" s="4" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B73" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B74" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B75" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B76" s="4" t="s">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B77" s="4" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B78" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B79" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B80" s="4" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B81" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B82" s="4" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B83" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B84" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B85" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B86" s="4" t="s">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B87" s="4" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B88" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B89" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B90" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B91" s="4" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B92" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B93" s="4" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B94" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B95" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B96" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B97" s="4" t="s">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B98" s="4" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B99" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B100" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B101" s="4" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B102" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B103" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B104" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B105" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B106" s="4" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="B19:AX19"/>
-    <mergeCell ref="B27:AX27"/>
-    <mergeCell ref="B32:AX32"/>
-    <mergeCell ref="B36:AX36"/>
-    <mergeCell ref="AM9:AN9"/>
-    <mergeCell ref="AO9:AR9"/>
-    <mergeCell ref="AS9:AU9"/>
-    <mergeCell ref="AV9:AX9"/>
-    <mergeCell ref="B10:AX10"/>
-    <mergeCell ref="AO11:AO14"/>
-    <mergeCell ref="AG15:AG16"/>
-    <mergeCell ref="AG11:AG13"/>
-    <mergeCell ref="N13:N16"/>
-    <mergeCell ref="W14:W16"/>
-    <mergeCell ref="W11:W12"/>
-    <mergeCell ref="AJ9:AL9"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C8:M8"/>
     <mergeCell ref="N8:V8"/>
@@ -4574,6 +4625,24 @@
     <mergeCell ref="C9:H9"/>
     <mergeCell ref="I9:M9"/>
     <mergeCell ref="N9:P9"/>
+    <mergeCell ref="B37:AX37"/>
+    <mergeCell ref="AM9:AN9"/>
+    <mergeCell ref="AO9:AR9"/>
+    <mergeCell ref="AS9:AU9"/>
+    <mergeCell ref="AV9:AX9"/>
+    <mergeCell ref="B10:AX10"/>
+    <mergeCell ref="AO11:AO14"/>
+    <mergeCell ref="AG15:AG16"/>
+    <mergeCell ref="AG11:AG13"/>
+    <mergeCell ref="N13:N16"/>
+    <mergeCell ref="W14:W16"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="AJ9:AL9"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="B19:AX19"/>
+    <mergeCell ref="B27:AX27"/>
+    <mergeCell ref="B32:AX32"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="D12:G12 O11:V11 O13:V16 X11:AF12 X14:AF16 AH15:AN16 AH11:AN13 AP11:AX14 L12 K14:M14">
